--- a/Documents/FYP last report/Hikiddo-Project-Plan.xlsx
+++ b/Documents/FYP last report/Hikiddo-Project-Plan.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128D5FCE-9971-FC4B-A11A-A5009EF2BA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F78E91-3AEE-9A47-98F9-C872798AD5D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18160" yWindow="-28800" windowWidth="68800" windowHeight="28800" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="-28300" windowWidth="68800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>Project Start:</t>
   </si>
@@ -168,9 +168,6 @@
     <t>VIVA presentation</t>
   </si>
   <si>
-    <t>Phase 6 - Milestones</t>
-  </si>
-  <si>
     <t>Wallyson Alves da Silva</t>
   </si>
   <si>
@@ -206,6 +203,12 @@
   <si>
     <t>TBA</t>
   </si>
+  <si>
+    <t>Phase 6 - Reports and Meetings</t>
+  </si>
+  <si>
+    <t>16/04/204</t>
+  </si>
 </sst>
 </file>
 
@@ -219,7 +222,7 @@
     <numFmt numFmtId="167" formatCode="d"/>
     <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -880,7 +883,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -976,6 +979,130 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="10" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="21" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="9" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="11" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -985,10 +1112,7 @@
     <xf numFmtId="166" fontId="0" fillId="10" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,169 +1136,47 @@
     <xf numFmtId="168" fontId="8" fillId="2" borderId="10" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="10" borderId="18" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="14" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
+    <xf numFmtId="166" fontId="0" fillId="10" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="30" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="30" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="31" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="10" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="0" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="9" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="10" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="10" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="10" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="17" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="21" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="21" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="20" xfId="11" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="21" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="17" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="18" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="12">
@@ -1191,47 +1193,7 @@
     <cellStyle name="Title" xfId="4" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="20">
     <dxf>
       <fill>
         <patternFill>
@@ -1285,16 +1247,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1316,6 +1268,46 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -1413,15 +1405,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="20"/>
-      <tableStyleElement type="headerRow" dxfId="19"/>
-      <tableStyleElement type="totalRow" dxfId="18"/>
-      <tableStyleElement type="firstColumn" dxfId="17"/>
-      <tableStyleElement type="lastColumn" dxfId="16"/>
-      <tableStyleElement type="firstRowStripe" dxfId="15"/>
-      <tableStyleElement type="secondRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="12"/>
+      <tableStyleElement type="wholeTable" dxfId="19"/>
+      <tableStyleElement type="headerRow" dxfId="18"/>
+      <tableStyleElement type="totalRow" dxfId="17"/>
+      <tableStyleElement type="firstColumn" dxfId="16"/>
+      <tableStyleElement type="lastColumn" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="12"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="11"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1783,13 +1775,13 @@
   </sheetPr>
   <dimension ref="A1:MD50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane xSplit="5" topLeftCell="AW1" activePane="topRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
-      <selection pane="topRight" activeCell="FJ5" sqref="FJ5"/>
+      <selection pane="topRight" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="30" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.5" customWidth="1"/>
@@ -1813,21 +1805,21 @@
     <col min="234" max="342" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+    <row r="1" spans="1:342" ht="30" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A2" s="83" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="84"/>
+    </row>
+    <row r="3" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="43"/>
     </row>
-    <row r="3" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="82" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:342" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:342" ht="25.5" customHeight="1" thickBot="1">
       <c r="A4" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="4"/>
@@ -1836,514 +1828,514 @@
       <c r="F4" s="2"/>
       <c r="G4" s="6"/>
     </row>
-    <row r="5" spans="1:342" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:342" ht="30" customHeight="1">
       <c r="A5" s="11"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:342" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="11"/>
       <c r="B6" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="85">
         <v>45170</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
     </row>
-    <row r="7" spans="1:342" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:342" ht="30" customHeight="1">
       <c r="B7" s="19" t="s">
         <v>1</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="17"/>
-      <c r="G7" s="39">
+      <c r="G7" s="88">
         <f>G8</f>
         <v>45159</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="40"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="48">
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="80">
         <f>N8</f>
         <v>45166</v>
       </c>
-      <c r="O7" s="40"/>
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
-      <c r="S7" s="40"/>
-      <c r="T7" s="41"/>
-      <c r="U7" s="48">
+      <c r="O7" s="81"/>
+      <c r="P7" s="81"/>
+      <c r="Q7" s="81"/>
+      <c r="R7" s="81"/>
+      <c r="S7" s="81"/>
+      <c r="T7" s="82"/>
+      <c r="U7" s="80">
         <f>U8</f>
         <v>45173</v>
       </c>
-      <c r="V7" s="40"/>
-      <c r="W7" s="40"/>
-      <c r="X7" s="40"/>
-      <c r="Y7" s="40"/>
-      <c r="Z7" s="40"/>
-      <c r="AA7" s="41"/>
-      <c r="AB7" s="35">
+      <c r="V7" s="81"/>
+      <c r="W7" s="81"/>
+      <c r="X7" s="81"/>
+      <c r="Y7" s="81"/>
+      <c r="Z7" s="81"/>
+      <c r="AA7" s="82"/>
+      <c r="AB7" s="77">
         <f>AB8</f>
         <v>45180</v>
       </c>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="36"/>
-      <c r="AG7" s="36"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="35">
+      <c r="AC7" s="78"/>
+      <c r="AD7" s="78"/>
+      <c r="AE7" s="78"/>
+      <c r="AF7" s="78"/>
+      <c r="AG7" s="78"/>
+      <c r="AH7" s="79"/>
+      <c r="AI7" s="77">
         <f>AI8</f>
         <v>45187</v>
       </c>
-      <c r="AJ7" s="36"/>
-      <c r="AK7" s="36"/>
-      <c r="AL7" s="36"/>
-      <c r="AM7" s="36"/>
-      <c r="AN7" s="36"/>
-      <c r="AO7" s="37"/>
-      <c r="AP7" s="35">
+      <c r="AJ7" s="78"/>
+      <c r="AK7" s="78"/>
+      <c r="AL7" s="78"/>
+      <c r="AM7" s="78"/>
+      <c r="AN7" s="78"/>
+      <c r="AO7" s="79"/>
+      <c r="AP7" s="77">
         <f>AP8</f>
         <v>45194</v>
       </c>
-      <c r="AQ7" s="36"/>
-      <c r="AR7" s="36"/>
-      <c r="AS7" s="36"/>
-      <c r="AT7" s="36"/>
-      <c r="AU7" s="36"/>
-      <c r="AV7" s="37"/>
-      <c r="AW7" s="35">
+      <c r="AQ7" s="78"/>
+      <c r="AR7" s="78"/>
+      <c r="AS7" s="78"/>
+      <c r="AT7" s="78"/>
+      <c r="AU7" s="78"/>
+      <c r="AV7" s="79"/>
+      <c r="AW7" s="77">
         <f>AW8</f>
         <v>45201</v>
       </c>
-      <c r="AX7" s="36"/>
-      <c r="AY7" s="36"/>
-      <c r="AZ7" s="36"/>
-      <c r="BA7" s="36"/>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="37"/>
-      <c r="BD7" s="35">
+      <c r="AX7" s="78"/>
+      <c r="AY7" s="78"/>
+      <c r="AZ7" s="78"/>
+      <c r="BA7" s="78"/>
+      <c r="BB7" s="78"/>
+      <c r="BC7" s="79"/>
+      <c r="BD7" s="77">
         <f>BD8</f>
         <v>45208</v>
       </c>
-      <c r="BE7" s="36"/>
-      <c r="BF7" s="36"/>
-      <c r="BG7" s="36"/>
-      <c r="BH7" s="36"/>
-      <c r="BI7" s="36"/>
-      <c r="BJ7" s="37"/>
-      <c r="BK7" s="35">
+      <c r="BE7" s="78"/>
+      <c r="BF7" s="78"/>
+      <c r="BG7" s="78"/>
+      <c r="BH7" s="78"/>
+      <c r="BI7" s="78"/>
+      <c r="BJ7" s="79"/>
+      <c r="BK7" s="77">
         <f>BK8</f>
         <v>45215</v>
       </c>
-      <c r="BL7" s="36"/>
-      <c r="BM7" s="36"/>
-      <c r="BN7" s="36"/>
-      <c r="BO7" s="36"/>
-      <c r="BP7" s="36"/>
-      <c r="BQ7" s="37"/>
-      <c r="BR7" s="35">
+      <c r="BL7" s="78"/>
+      <c r="BM7" s="78"/>
+      <c r="BN7" s="78"/>
+      <c r="BO7" s="78"/>
+      <c r="BP7" s="78"/>
+      <c r="BQ7" s="79"/>
+      <c r="BR7" s="77">
         <f t="shared" ref="BR7" si="0">BR8</f>
         <v>45222</v>
       </c>
-      <c r="BS7" s="36"/>
-      <c r="BT7" s="36"/>
-      <c r="BU7" s="36"/>
-      <c r="BV7" s="36"/>
-      <c r="BW7" s="36"/>
-      <c r="BX7" s="37"/>
-      <c r="BY7" s="35">
+      <c r="BS7" s="78"/>
+      <c r="BT7" s="78"/>
+      <c r="BU7" s="78"/>
+      <c r="BV7" s="78"/>
+      <c r="BW7" s="78"/>
+      <c r="BX7" s="79"/>
+      <c r="BY7" s="77">
         <f t="shared" ref="BY7" si="1">BY8</f>
         <v>45229</v>
       </c>
-      <c r="BZ7" s="36"/>
-      <c r="CA7" s="36"/>
-      <c r="CB7" s="36"/>
-      <c r="CC7" s="36"/>
-      <c r="CD7" s="36"/>
-      <c r="CE7" s="37"/>
-      <c r="CF7" s="35">
+      <c r="BZ7" s="78"/>
+      <c r="CA7" s="78"/>
+      <c r="CB7" s="78"/>
+      <c r="CC7" s="78"/>
+      <c r="CD7" s="78"/>
+      <c r="CE7" s="79"/>
+      <c r="CF7" s="77">
         <f t="shared" ref="CF7" si="2">CF8</f>
         <v>45236</v>
       </c>
-      <c r="CG7" s="36"/>
-      <c r="CH7" s="36"/>
-      <c r="CI7" s="36"/>
-      <c r="CJ7" s="36"/>
-      <c r="CK7" s="36"/>
-      <c r="CL7" s="37"/>
-      <c r="CM7" s="35">
+      <c r="CG7" s="78"/>
+      <c r="CH7" s="78"/>
+      <c r="CI7" s="78"/>
+      <c r="CJ7" s="78"/>
+      <c r="CK7" s="78"/>
+      <c r="CL7" s="79"/>
+      <c r="CM7" s="77">
         <f t="shared" ref="CM7" si="3">CM8</f>
         <v>45243</v>
       </c>
-      <c r="CN7" s="36"/>
-      <c r="CO7" s="36"/>
-      <c r="CP7" s="36"/>
-      <c r="CQ7" s="36"/>
-      <c r="CR7" s="36"/>
-      <c r="CS7" s="37"/>
-      <c r="CT7" s="35">
+      <c r="CN7" s="78"/>
+      <c r="CO7" s="78"/>
+      <c r="CP7" s="78"/>
+      <c r="CQ7" s="78"/>
+      <c r="CR7" s="78"/>
+      <c r="CS7" s="79"/>
+      <c r="CT7" s="77">
         <f t="shared" ref="CT7" si="4">CT8</f>
         <v>45250</v>
       </c>
-      <c r="CU7" s="36"/>
-      <c r="CV7" s="36"/>
-      <c r="CW7" s="36"/>
-      <c r="CX7" s="36"/>
-      <c r="CY7" s="36"/>
-      <c r="CZ7" s="37"/>
-      <c r="DA7" s="35">
+      <c r="CU7" s="78"/>
+      <c r="CV7" s="78"/>
+      <c r="CW7" s="78"/>
+      <c r="CX7" s="78"/>
+      <c r="CY7" s="78"/>
+      <c r="CZ7" s="79"/>
+      <c r="DA7" s="77">
         <f t="shared" ref="DA7" si="5">DA8</f>
         <v>45257</v>
       </c>
-      <c r="DB7" s="36"/>
-      <c r="DC7" s="36"/>
-      <c r="DD7" s="36"/>
-      <c r="DE7" s="36"/>
-      <c r="DF7" s="36"/>
-      <c r="DG7" s="37"/>
-      <c r="DH7" s="35">
+      <c r="DB7" s="78"/>
+      <c r="DC7" s="78"/>
+      <c r="DD7" s="78"/>
+      <c r="DE7" s="78"/>
+      <c r="DF7" s="78"/>
+      <c r="DG7" s="79"/>
+      <c r="DH7" s="77">
         <f t="shared" ref="DH7" si="6">DH8</f>
         <v>45264</v>
       </c>
-      <c r="DI7" s="36"/>
-      <c r="DJ7" s="36"/>
-      <c r="DK7" s="36"/>
-      <c r="DL7" s="36"/>
-      <c r="DM7" s="36"/>
-      <c r="DN7" s="37"/>
-      <c r="DO7" s="35">
+      <c r="DI7" s="78"/>
+      <c r="DJ7" s="78"/>
+      <c r="DK7" s="78"/>
+      <c r="DL7" s="78"/>
+      <c r="DM7" s="78"/>
+      <c r="DN7" s="79"/>
+      <c r="DO7" s="77">
         <f t="shared" ref="DO7" si="7">DO8</f>
         <v>45271</v>
       </c>
-      <c r="DP7" s="36"/>
-      <c r="DQ7" s="36"/>
-      <c r="DR7" s="36"/>
-      <c r="DS7" s="36"/>
-      <c r="DT7" s="36"/>
-      <c r="DU7" s="37"/>
-      <c r="DV7" s="35">
+      <c r="DP7" s="78"/>
+      <c r="DQ7" s="78"/>
+      <c r="DR7" s="78"/>
+      <c r="DS7" s="78"/>
+      <c r="DT7" s="78"/>
+      <c r="DU7" s="79"/>
+      <c r="DV7" s="77">
         <f t="shared" ref="DV7" si="8">DV8</f>
         <v>45278</v>
       </c>
-      <c r="DW7" s="36"/>
-      <c r="DX7" s="36"/>
-      <c r="DY7" s="36"/>
-      <c r="DZ7" s="36"/>
-      <c r="EA7" s="36"/>
-      <c r="EB7" s="37"/>
-      <c r="EC7" s="35">
+      <c r="DW7" s="78"/>
+      <c r="DX7" s="78"/>
+      <c r="DY7" s="78"/>
+      <c r="DZ7" s="78"/>
+      <c r="EA7" s="78"/>
+      <c r="EB7" s="79"/>
+      <c r="EC7" s="77">
         <f t="shared" ref="EC7" si="9">EC8</f>
         <v>45285</v>
       </c>
-      <c r="ED7" s="36"/>
-      <c r="EE7" s="36"/>
-      <c r="EF7" s="36"/>
-      <c r="EG7" s="36"/>
-      <c r="EH7" s="36"/>
-      <c r="EI7" s="37"/>
-      <c r="EJ7" s="35">
+      <c r="ED7" s="78"/>
+      <c r="EE7" s="78"/>
+      <c r="EF7" s="78"/>
+      <c r="EG7" s="78"/>
+      <c r="EH7" s="78"/>
+      <c r="EI7" s="79"/>
+      <c r="EJ7" s="77">
         <f t="shared" ref="EJ7" si="10">EJ8</f>
         <v>45292</v>
       </c>
-      <c r="EK7" s="36"/>
-      <c r="EL7" s="36"/>
-      <c r="EM7" s="36"/>
-      <c r="EN7" s="36"/>
-      <c r="EO7" s="36"/>
-      <c r="EP7" s="37"/>
-      <c r="EQ7" s="35">
+      <c r="EK7" s="78"/>
+      <c r="EL7" s="78"/>
+      <c r="EM7" s="78"/>
+      <c r="EN7" s="78"/>
+      <c r="EO7" s="78"/>
+      <c r="EP7" s="79"/>
+      <c r="EQ7" s="77">
         <f t="shared" ref="EQ7" si="11">EQ8</f>
         <v>45299</v>
       </c>
-      <c r="ER7" s="36"/>
-      <c r="ES7" s="36"/>
-      <c r="ET7" s="36"/>
-      <c r="EU7" s="36"/>
-      <c r="EV7" s="36"/>
-      <c r="EW7" s="37"/>
-      <c r="EX7" s="35">
+      <c r="ER7" s="78"/>
+      <c r="ES7" s="78"/>
+      <c r="ET7" s="78"/>
+      <c r="EU7" s="78"/>
+      <c r="EV7" s="78"/>
+      <c r="EW7" s="79"/>
+      <c r="EX7" s="77">
         <f t="shared" ref="EX7" si="12">EX8</f>
         <v>45306</v>
       </c>
-      <c r="EY7" s="36"/>
-      <c r="EZ7" s="36"/>
-      <c r="FA7" s="36"/>
-      <c r="FB7" s="36"/>
-      <c r="FC7" s="36"/>
-      <c r="FD7" s="37"/>
-      <c r="FE7" s="35">
+      <c r="EY7" s="78"/>
+      <c r="EZ7" s="78"/>
+      <c r="FA7" s="78"/>
+      <c r="FB7" s="78"/>
+      <c r="FC7" s="78"/>
+      <c r="FD7" s="79"/>
+      <c r="FE7" s="77">
         <f t="shared" ref="FE7" si="13">FE8</f>
         <v>45313</v>
       </c>
-      <c r="FF7" s="36"/>
-      <c r="FG7" s="36"/>
-      <c r="FH7" s="36"/>
-      <c r="FI7" s="36"/>
-      <c r="FJ7" s="36"/>
-      <c r="FK7" s="37"/>
-      <c r="FL7" s="35">
+      <c r="FF7" s="78"/>
+      <c r="FG7" s="78"/>
+      <c r="FH7" s="78"/>
+      <c r="FI7" s="78"/>
+      <c r="FJ7" s="78"/>
+      <c r="FK7" s="79"/>
+      <c r="FL7" s="77">
         <f t="shared" ref="FL7" si="14">FL8</f>
         <v>45320</v>
       </c>
-      <c r="FM7" s="36"/>
-      <c r="FN7" s="36"/>
-      <c r="FO7" s="36"/>
-      <c r="FP7" s="36"/>
-      <c r="FQ7" s="36"/>
-      <c r="FR7" s="37"/>
-      <c r="FS7" s="35">
+      <c r="FM7" s="78"/>
+      <c r="FN7" s="78"/>
+      <c r="FO7" s="78"/>
+      <c r="FP7" s="78"/>
+      <c r="FQ7" s="78"/>
+      <c r="FR7" s="79"/>
+      <c r="FS7" s="77">
         <f t="shared" ref="FS7" si="15">FS8</f>
         <v>45327</v>
       </c>
-      <c r="FT7" s="36"/>
-      <c r="FU7" s="36"/>
-      <c r="FV7" s="36"/>
-      <c r="FW7" s="36"/>
-      <c r="FX7" s="36"/>
-      <c r="FY7" s="37"/>
-      <c r="FZ7" s="35">
+      <c r="FT7" s="78"/>
+      <c r="FU7" s="78"/>
+      <c r="FV7" s="78"/>
+      <c r="FW7" s="78"/>
+      <c r="FX7" s="78"/>
+      <c r="FY7" s="79"/>
+      <c r="FZ7" s="77">
         <f t="shared" ref="FZ7" si="16">FZ8</f>
         <v>45334</v>
       </c>
-      <c r="GA7" s="36"/>
-      <c r="GB7" s="36"/>
-      <c r="GC7" s="36"/>
-      <c r="GD7" s="36"/>
-      <c r="GE7" s="36"/>
-      <c r="GF7" s="37"/>
-      <c r="GG7" s="35">
+      <c r="GA7" s="78"/>
+      <c r="GB7" s="78"/>
+      <c r="GC7" s="78"/>
+      <c r="GD7" s="78"/>
+      <c r="GE7" s="78"/>
+      <c r="GF7" s="79"/>
+      <c r="GG7" s="77">
         <f t="shared" ref="GG7" si="17">GG8</f>
         <v>45341</v>
       </c>
-      <c r="GH7" s="36"/>
-      <c r="GI7" s="36"/>
-      <c r="GJ7" s="36"/>
-      <c r="GK7" s="36"/>
-      <c r="GL7" s="36"/>
-      <c r="GM7" s="37"/>
-      <c r="GN7" s="35">
+      <c r="GH7" s="78"/>
+      <c r="GI7" s="78"/>
+      <c r="GJ7" s="78"/>
+      <c r="GK7" s="78"/>
+      <c r="GL7" s="78"/>
+      <c r="GM7" s="79"/>
+      <c r="GN7" s="77">
         <f t="shared" ref="GN7" si="18">GN8</f>
         <v>45348</v>
       </c>
-      <c r="GO7" s="36"/>
-      <c r="GP7" s="36"/>
-      <c r="GQ7" s="36"/>
-      <c r="GR7" s="36"/>
-      <c r="GS7" s="36"/>
-      <c r="GT7" s="37"/>
-      <c r="GU7" s="35">
+      <c r="GO7" s="78"/>
+      <c r="GP7" s="78"/>
+      <c r="GQ7" s="78"/>
+      <c r="GR7" s="78"/>
+      <c r="GS7" s="78"/>
+      <c r="GT7" s="79"/>
+      <c r="GU7" s="77">
         <f t="shared" ref="GU7" si="19">GU8</f>
         <v>45355</v>
       </c>
-      <c r="GV7" s="36"/>
-      <c r="GW7" s="36"/>
-      <c r="GX7" s="36"/>
-      <c r="GY7" s="36"/>
-      <c r="GZ7" s="36"/>
-      <c r="HA7" s="37"/>
-      <c r="HB7" s="35">
+      <c r="GV7" s="78"/>
+      <c r="GW7" s="78"/>
+      <c r="GX7" s="78"/>
+      <c r="GY7" s="78"/>
+      <c r="GZ7" s="78"/>
+      <c r="HA7" s="79"/>
+      <c r="HB7" s="77">
         <f t="shared" ref="HB7" si="20">HB8</f>
         <v>45362</v>
       </c>
-      <c r="HC7" s="36"/>
-      <c r="HD7" s="36"/>
-      <c r="HE7" s="36"/>
-      <c r="HF7" s="36"/>
-      <c r="HG7" s="36"/>
-      <c r="HH7" s="37"/>
-      <c r="HI7" s="35">
+      <c r="HC7" s="78"/>
+      <c r="HD7" s="78"/>
+      <c r="HE7" s="78"/>
+      <c r="HF7" s="78"/>
+      <c r="HG7" s="78"/>
+      <c r="HH7" s="79"/>
+      <c r="HI7" s="77">
         <f t="shared" ref="HI7" si="21">HI8</f>
         <v>45369</v>
       </c>
-      <c r="HJ7" s="36"/>
-      <c r="HK7" s="36"/>
-      <c r="HL7" s="36"/>
-      <c r="HM7" s="36"/>
-      <c r="HN7" s="36"/>
-      <c r="HO7" s="37"/>
-      <c r="HP7" s="35">
+      <c r="HJ7" s="78"/>
+      <c r="HK7" s="78"/>
+      <c r="HL7" s="78"/>
+      <c r="HM7" s="78"/>
+      <c r="HN7" s="78"/>
+      <c r="HO7" s="79"/>
+      <c r="HP7" s="77">
         <f t="shared" ref="HP7" si="22">HP8</f>
         <v>45376</v>
       </c>
-      <c r="HQ7" s="36"/>
-      <c r="HR7" s="36"/>
-      <c r="HS7" s="36"/>
-      <c r="HT7" s="36"/>
-      <c r="HU7" s="36"/>
-      <c r="HV7" s="37"/>
-      <c r="HW7" s="35">
+      <c r="HQ7" s="78"/>
+      <c r="HR7" s="78"/>
+      <c r="HS7" s="78"/>
+      <c r="HT7" s="78"/>
+      <c r="HU7" s="78"/>
+      <c r="HV7" s="79"/>
+      <c r="HW7" s="77">
         <f t="shared" ref="HW7" si="23">HW8</f>
         <v>45383</v>
       </c>
-      <c r="HX7" s="36"/>
-      <c r="HY7" s="36"/>
-      <c r="HZ7" s="36"/>
-      <c r="IA7" s="36"/>
-      <c r="IB7" s="36"/>
-      <c r="IC7" s="37"/>
-      <c r="ID7" s="35">
+      <c r="HX7" s="78"/>
+      <c r="HY7" s="78"/>
+      <c r="HZ7" s="78"/>
+      <c r="IA7" s="78"/>
+      <c r="IB7" s="78"/>
+      <c r="IC7" s="79"/>
+      <c r="ID7" s="77">
         <f t="shared" ref="ID7" si="24">ID8</f>
         <v>45390</v>
       </c>
-      <c r="IE7" s="36"/>
-      <c r="IF7" s="36"/>
-      <c r="IG7" s="36"/>
-      <c r="IH7" s="36"/>
-      <c r="II7" s="36"/>
-      <c r="IJ7" s="37"/>
-      <c r="IK7" s="35">
+      <c r="IE7" s="78"/>
+      <c r="IF7" s="78"/>
+      <c r="IG7" s="78"/>
+      <c r="IH7" s="78"/>
+      <c r="II7" s="78"/>
+      <c r="IJ7" s="79"/>
+      <c r="IK7" s="77">
         <f t="shared" ref="IK7" si="25">IK8</f>
         <v>45397</v>
       </c>
-      <c r="IL7" s="36"/>
-      <c r="IM7" s="36"/>
-      <c r="IN7" s="36"/>
-      <c r="IO7" s="36"/>
-      <c r="IP7" s="36"/>
-      <c r="IQ7" s="37"/>
-      <c r="IR7" s="35">
+      <c r="IL7" s="78"/>
+      <c r="IM7" s="78"/>
+      <c r="IN7" s="78"/>
+      <c r="IO7" s="78"/>
+      <c r="IP7" s="78"/>
+      <c r="IQ7" s="79"/>
+      <c r="IR7" s="77">
         <f t="shared" ref="IR7" si="26">IR8</f>
         <v>45404</v>
       </c>
-      <c r="IS7" s="36"/>
-      <c r="IT7" s="36"/>
-      <c r="IU7" s="36"/>
-      <c r="IV7" s="36"/>
-      <c r="IW7" s="36"/>
-      <c r="IX7" s="37"/>
-      <c r="IY7" s="35">
+      <c r="IS7" s="78"/>
+      <c r="IT7" s="78"/>
+      <c r="IU7" s="78"/>
+      <c r="IV7" s="78"/>
+      <c r="IW7" s="78"/>
+      <c r="IX7" s="79"/>
+      <c r="IY7" s="77">
         <f t="shared" ref="IY7" si="27">IY8</f>
         <v>45411</v>
       </c>
-      <c r="IZ7" s="36"/>
-      <c r="JA7" s="36"/>
-      <c r="JB7" s="36"/>
-      <c r="JC7" s="36"/>
-      <c r="JD7" s="36"/>
-      <c r="JE7" s="37"/>
-      <c r="JF7" s="35">
+      <c r="IZ7" s="78"/>
+      <c r="JA7" s="78"/>
+      <c r="JB7" s="78"/>
+      <c r="JC7" s="78"/>
+      <c r="JD7" s="78"/>
+      <c r="JE7" s="79"/>
+      <c r="JF7" s="77">
         <f t="shared" ref="JF7:LQ7" si="28">JF8</f>
         <v>45418</v>
       </c>
-      <c r="JG7" s="36"/>
-      <c r="JH7" s="36"/>
-      <c r="JI7" s="36"/>
-      <c r="JJ7" s="36"/>
-      <c r="JK7" s="36"/>
-      <c r="JL7" s="37"/>
-      <c r="JM7" s="35">
+      <c r="JG7" s="78"/>
+      <c r="JH7" s="78"/>
+      <c r="JI7" s="78"/>
+      <c r="JJ7" s="78"/>
+      <c r="JK7" s="78"/>
+      <c r="JL7" s="79"/>
+      <c r="JM7" s="77">
         <f t="shared" si="28"/>
         <v>45425</v>
       </c>
-      <c r="JN7" s="36"/>
-      <c r="JO7" s="36"/>
-      <c r="JP7" s="36"/>
-      <c r="JQ7" s="36"/>
-      <c r="JR7" s="36"/>
-      <c r="JS7" s="37"/>
-      <c r="JT7" s="35">
+      <c r="JN7" s="78"/>
+      <c r="JO7" s="78"/>
+      <c r="JP7" s="78"/>
+      <c r="JQ7" s="78"/>
+      <c r="JR7" s="78"/>
+      <c r="JS7" s="79"/>
+      <c r="JT7" s="77">
         <f t="shared" si="28"/>
         <v>45432</v>
       </c>
-      <c r="JU7" s="36"/>
-      <c r="JV7" s="36"/>
-      <c r="JW7" s="36"/>
-      <c r="JX7" s="36"/>
-      <c r="JY7" s="36"/>
-      <c r="JZ7" s="37"/>
-      <c r="KA7" s="35">
+      <c r="JU7" s="78"/>
+      <c r="JV7" s="78"/>
+      <c r="JW7" s="78"/>
+      <c r="JX7" s="78"/>
+      <c r="JY7" s="78"/>
+      <c r="JZ7" s="79"/>
+      <c r="KA7" s="77">
         <f t="shared" si="28"/>
         <v>45439</v>
       </c>
-      <c r="KB7" s="36"/>
-      <c r="KC7" s="36"/>
-      <c r="KD7" s="36"/>
-      <c r="KE7" s="36"/>
-      <c r="KF7" s="36"/>
-      <c r="KG7" s="37"/>
-      <c r="KH7" s="35">
+      <c r="KB7" s="78"/>
+      <c r="KC7" s="78"/>
+      <c r="KD7" s="78"/>
+      <c r="KE7" s="78"/>
+      <c r="KF7" s="78"/>
+      <c r="KG7" s="79"/>
+      <c r="KH7" s="77">
         <f t="shared" si="28"/>
         <v>45446</v>
       </c>
-      <c r="KI7" s="36"/>
-      <c r="KJ7" s="36"/>
-      <c r="KK7" s="36"/>
-      <c r="KL7" s="36"/>
-      <c r="KM7" s="36"/>
-      <c r="KN7" s="37"/>
-      <c r="KO7" s="35">
+      <c r="KI7" s="78"/>
+      <c r="KJ7" s="78"/>
+      <c r="KK7" s="78"/>
+      <c r="KL7" s="78"/>
+      <c r="KM7" s="78"/>
+      <c r="KN7" s="79"/>
+      <c r="KO7" s="77">
         <f t="shared" si="28"/>
         <v>45453</v>
       </c>
-      <c r="KP7" s="36"/>
-      <c r="KQ7" s="36"/>
-      <c r="KR7" s="36"/>
-      <c r="KS7" s="36"/>
-      <c r="KT7" s="36"/>
-      <c r="KU7" s="37"/>
-      <c r="KV7" s="35">
+      <c r="KP7" s="78"/>
+      <c r="KQ7" s="78"/>
+      <c r="KR7" s="78"/>
+      <c r="KS7" s="78"/>
+      <c r="KT7" s="78"/>
+      <c r="KU7" s="79"/>
+      <c r="KV7" s="77">
         <f t="shared" si="28"/>
         <v>45460</v>
       </c>
-      <c r="KW7" s="36"/>
-      <c r="KX7" s="36"/>
-      <c r="KY7" s="36"/>
-      <c r="KZ7" s="36"/>
-      <c r="LA7" s="36"/>
-      <c r="LB7" s="37"/>
-      <c r="LC7" s="35">
+      <c r="KW7" s="78"/>
+      <c r="KX7" s="78"/>
+      <c r="KY7" s="78"/>
+      <c r="KZ7" s="78"/>
+      <c r="LA7" s="78"/>
+      <c r="LB7" s="79"/>
+      <c r="LC7" s="77">
         <f t="shared" si="28"/>
         <v>45467</v>
       </c>
-      <c r="LD7" s="36"/>
-      <c r="LE7" s="36"/>
-      <c r="LF7" s="36"/>
-      <c r="LG7" s="36"/>
-      <c r="LH7" s="36"/>
-      <c r="LI7" s="37"/>
-      <c r="LJ7" s="35">
+      <c r="LD7" s="78"/>
+      <c r="LE7" s="78"/>
+      <c r="LF7" s="78"/>
+      <c r="LG7" s="78"/>
+      <c r="LH7" s="78"/>
+      <c r="LI7" s="79"/>
+      <c r="LJ7" s="77">
         <f t="shared" si="28"/>
         <v>45474</v>
       </c>
-      <c r="LK7" s="36"/>
-      <c r="LL7" s="36"/>
-      <c r="LM7" s="36"/>
-      <c r="LN7" s="36"/>
-      <c r="LO7" s="36"/>
-      <c r="LP7" s="37"/>
-      <c r="LQ7" s="35">
+      <c r="LK7" s="78"/>
+      <c r="LL7" s="78"/>
+      <c r="LM7" s="78"/>
+      <c r="LN7" s="78"/>
+      <c r="LO7" s="78"/>
+      <c r="LP7" s="79"/>
+      <c r="LQ7" s="77">
         <f t="shared" si="28"/>
         <v>45481</v>
       </c>
-      <c r="LR7" s="36"/>
-      <c r="LS7" s="36"/>
-      <c r="LT7" s="36"/>
-      <c r="LU7" s="36"/>
-      <c r="LV7" s="36"/>
-      <c r="LW7" s="37"/>
-      <c r="LX7" s="35">
+      <c r="LR7" s="78"/>
+      <c r="LS7" s="78"/>
+      <c r="LT7" s="78"/>
+      <c r="LU7" s="78"/>
+      <c r="LV7" s="78"/>
+      <c r="LW7" s="79"/>
+      <c r="LX7" s="77">
         <f t="shared" ref="LX7" si="29">LX8</f>
         <v>45488</v>
       </c>
-      <c r="LY7" s="36"/>
-      <c r="LZ7" s="36"/>
-      <c r="MA7" s="36"/>
-      <c r="MB7" s="36"/>
-      <c r="MC7" s="36"/>
-      <c r="MD7" s="38"/>
+      <c r="LY7" s="78"/>
+      <c r="LZ7" s="78"/>
+      <c r="MA7" s="78"/>
+      <c r="MB7" s="78"/>
+      <c r="MC7" s="78"/>
+      <c r="MD7" s="92"/>
     </row>
-    <row r="8" spans="1:342" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
-      <c r="B8" s="47"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+    <row r="8" spans="1:342" ht="15" customHeight="1" thickBot="1">
+      <c r="A8" s="76"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
       <c r="G8" s="20">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>45159</v>
@@ -3689,7 +3681,7 @@
         <v>45494</v>
       </c>
     </row>
-    <row r="9" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:342" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="31" t="s">
         <v>2</v>
       </c>
@@ -5053,11 +5045,11 @@
         <v>S</v>
       </c>
     </row>
-    <row r="10" spans="1:342" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:342" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A10" s="34"/>
-      <c r="B10" s="50"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
+      <c r="B10" s="35"/>
+      <c r="C10"/>
+      <c r="D10"/>
       <c r="E10" s="26"/>
       <c r="F10" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
@@ -5268,14 +5260,14 @@
       <c r="HA10" s="8"/>
       <c r="MD10" s="26"/>
     </row>
-    <row r="11" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83" t="s">
+    <row r="11" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A11" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="84"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="101"/>
       <c r="F11" s="7" t="str">
         <f>IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
@@ -5617,20 +5609,20 @@
       <c r="MC11" s="8"/>
       <c r="MD11" s="27"/>
     </row>
-    <row r="12" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+    <row r="12" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A12" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="67" t="s">
+      <c r="B12" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="68">
+      <c r="C12" s="49">
         <v>45204</v>
       </c>
-      <c r="D12" s="69" t="s">
+      <c r="D12" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="86">
+      <c r="E12" s="63">
         <v>45204</v>
       </c>
       <c r="F12" s="7">
@@ -5974,18 +5966,20 @@
       <c r="MC12" s="8"/>
       <c r="MD12" s="27"/>
     </row>
-    <row r="13" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68">
+    <row r="13" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A13" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" s="48" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="49">
         <v>45201</v>
       </c>
-      <c r="D13" s="69" t="s">
+      <c r="D13" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="86">
+      <c r="E13" s="63">
         <v>45205</v>
       </c>
       <c r="F13" s="7"/>
@@ -6326,20 +6320,20 @@
       <c r="MC13" s="8"/>
       <c r="MD13" s="27"/>
     </row>
-    <row r="14" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="67" t="s">
+    <row r="14" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A14" s="62" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="68">
+      <c r="C14" s="49">
         <v>45205</v>
       </c>
-      <c r="D14" s="69" t="s">
+      <c r="D14" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="86">
+      <c r="E14" s="63">
         <v>45211</v>
       </c>
       <c r="F14" s="7">
@@ -6683,20 +6677,20 @@
       <c r="MC14" s="8"/>
       <c r="MD14" s="27"/>
     </row>
-    <row r="15" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="67" t="s">
+    <row r="15" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A15" s="62" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="68">
+      <c r="C15" s="49">
         <v>45212</v>
       </c>
-      <c r="D15" s="69" t="s">
+      <c r="D15" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="86">
+      <c r="E15" s="63">
         <v>45236</v>
       </c>
       <c r="F15" s="7">
@@ -7040,20 +7034,20 @@
       <c r="MC15" s="8"/>
       <c r="MD15" s="27"/>
     </row>
-    <row r="16" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="67" t="s">
+    <row r="16" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A16" s="62" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="68">
+      <c r="C16" s="49">
         <v>45236</v>
       </c>
-      <c r="D16" s="69" t="s">
+      <c r="D16" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E16" s="86">
+      <c r="E16" s="63">
         <v>45239</v>
       </c>
       <c r="F16" s="7">
@@ -7397,14 +7391,14 @@
       <c r="MC16" s="8"/>
       <c r="MD16" s="27"/>
     </row>
-    <row r="17" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87" t="s">
+    <row r="17" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A17" s="96" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="70"/>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="88"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
       <c r="F17" s="7" t="str">
         <f t="shared" si="279"/>
         <v/>
@@ -7746,20 +7740,20 @@
       <c r="MC17" s="8"/>
       <c r="MD17" s="27"/>
     </row>
-    <row r="18" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="89" t="s">
+    <row r="18" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A18" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="72">
+      <c r="C18" s="52">
         <v>45301</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="90">
+      <c r="E18" s="65">
         <v>45309</v>
       </c>
       <c r="F18" s="7">
@@ -8103,20 +8097,20 @@
       <c r="MC18" s="8"/>
       <c r="MD18" s="27"/>
     </row>
-    <row r="19" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="89" t="s">
+    <row r="19" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A19" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="71" t="s">
+      <c r="B19" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="72">
+      <c r="C19" s="52">
         <v>45309</v>
       </c>
-      <c r="D19" s="69" t="s">
+      <c r="D19" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="90">
+      <c r="E19" s="65">
         <v>45312</v>
       </c>
       <c r="F19" s="7">
@@ -8460,20 +8454,20 @@
       <c r="MC19" s="8"/>
       <c r="MD19" s="27"/>
     </row>
-    <row r="20" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="89" t="s">
+    <row r="20" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="72">
+      <c r="C20" s="52">
         <v>45313</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E20" s="90">
+      <c r="E20" s="65">
         <v>45321</v>
       </c>
       <c r="F20" s="7">
@@ -8817,20 +8811,20 @@
       <c r="MC20" s="8"/>
       <c r="MD20" s="27"/>
     </row>
-    <row r="21" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A21" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="71" t="s">
+      <c r="B21" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="72">
+      <c r="C21" s="52">
         <v>45324</v>
       </c>
-      <c r="D21" s="69" t="s">
+      <c r="D21" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="90">
+      <c r="E21" s="65">
         <v>45327</v>
       </c>
       <c r="F21" s="7"/>
@@ -9171,20 +9165,20 @@
       <c r="MC21" s="8"/>
       <c r="MD21" s="27"/>
     </row>
-    <row r="22" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="89" t="s">
+    <row r="22" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A22" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="72">
+      <c r="C22" s="52">
         <v>45325</v>
       </c>
-      <c r="D22" s="69" t="s">
+      <c r="D22" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E22" s="90">
+      <c r="E22" s="65">
         <v>45330</v>
       </c>
       <c r="F22" s="7">
@@ -9528,20 +9522,20 @@
       <c r="MC22" s="8"/>
       <c r="MD22" s="27"/>
     </row>
-    <row r="23" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="89" t="s">
+    <row r="23" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A23" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="71" t="s">
+      <c r="B23" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="72">
+      <c r="C23" s="52">
         <v>45331</v>
       </c>
-      <c r="D23" s="69" t="s">
+      <c r="D23" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E23" s="90">
+      <c r="E23" s="65">
         <v>45333</v>
       </c>
       <c r="F23" s="7">
@@ -9885,20 +9879,20 @@
       <c r="MC23" s="8"/>
       <c r="MD23" s="27"/>
     </row>
-    <row r="24" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
+    <row r="24" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A24" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C24" s="72">
+      <c r="C24" s="52">
         <v>45325</v>
       </c>
-      <c r="D24" s="69" t="s">
+      <c r="D24" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="90">
+      <c r="E24" s="65">
         <v>45336</v>
       </c>
       <c r="F24" s="7">
@@ -10242,14 +10236,14 @@
       <c r="MC24" s="8"/>
       <c r="MD24" s="27"/>
     </row>
-    <row r="25" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="91" t="s">
+    <row r="25" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A25" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="73"/>
-      <c r="E25" s="92"/>
+      <c r="B25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="95"/>
       <c r="F25" s="7" t="str">
         <f t="shared" si="279"/>
         <v/>
@@ -10591,20 +10585,20 @@
       <c r="MC25" s="8"/>
       <c r="MD25" s="27"/>
     </row>
-    <row r="26" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="93" t="s">
+    <row r="26" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A26" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="B26" s="74" t="s">
+      <c r="B26" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="75">
+      <c r="C26" s="54">
         <v>45341</v>
       </c>
-      <c r="D26" s="69" t="s">
+      <c r="D26" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="94">
+      <c r="E26" s="67">
         <v>45348</v>
       </c>
       <c r="F26" s="7">
@@ -10948,20 +10942,20 @@
       <c r="MC26" s="8"/>
       <c r="MD26" s="27"/>
     </row>
-    <row r="27" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+    <row r="27" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A27" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C27" s="75">
+      <c r="C27" s="54">
         <v>45348</v>
       </c>
-      <c r="D27" s="69" t="s">
+      <c r="D27" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="94">
+      <c r="E27" s="67">
         <v>45355</v>
       </c>
       <c r="F27" s="7"/>
@@ -11302,20 +11296,20 @@
       <c r="MC27" s="8"/>
       <c r="MD27" s="27"/>
     </row>
-    <row r="28" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="93" t="s">
+    <row r="28" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A28" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C28" s="75">
+      <c r="C28" s="54">
         <v>45355</v>
       </c>
-      <c r="D28" s="69" t="s">
+      <c r="D28" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E28" s="94">
+      <c r="E28" s="67">
         <v>45362</v>
       </c>
       <c r="F28" s="7"/>
@@ -11656,20 +11650,20 @@
       <c r="MC28" s="8"/>
       <c r="MD28" s="27"/>
     </row>
-    <row r="29" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+    <row r="29" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A29" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="B29" s="74" t="s">
+      <c r="B29" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="75">
+      <c r="C29" s="54">
         <v>45362</v>
       </c>
-      <c r="D29" s="69" t="s">
+      <c r="D29" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E29" s="94">
+      <c r="E29" s="67">
         <v>45369</v>
       </c>
       <c r="F29" s="7"/>
@@ -12010,20 +12004,20 @@
       <c r="MC29" s="8"/>
       <c r="MD29" s="27"/>
     </row>
-    <row r="30" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="93" t="s">
+    <row r="30" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A30" s="66" t="s">
         <v>24</v>
       </c>
-      <c r="B30" s="74" t="s">
+      <c r="B30" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="75">
+      <c r="C30" s="54">
         <v>45369</v>
       </c>
-      <c r="D30" s="69" t="s">
+      <c r="D30" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="94">
+      <c r="E30" s="67">
         <v>45376</v>
       </c>
       <c r="F30" s="7"/>
@@ -12364,20 +12358,20 @@
       <c r="MC30" s="8"/>
       <c r="MD30" s="27"/>
     </row>
-    <row r="31" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+    <row r="31" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A31" s="66" t="s">
         <v>25</v>
       </c>
-      <c r="B31" s="74" t="s">
+      <c r="B31" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="75">
+      <c r="C31" s="54">
         <v>45342</v>
       </c>
-      <c r="D31" s="69" t="s">
+      <c r="D31" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E31" s="95">
+      <c r="E31" s="68">
         <v>45376</v>
       </c>
       <c r="F31" s="7">
@@ -12721,20 +12715,20 @@
       <c r="MC31" s="8"/>
       <c r="MD31" s="27"/>
     </row>
-    <row r="32" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="93" t="s">
+    <row r="32" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A32" s="66" t="s">
         <v>26</v>
       </c>
-      <c r="B32" s="74" t="s">
+      <c r="B32" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="75">
+      <c r="C32" s="54">
         <v>45343</v>
       </c>
-      <c r="D32" s="69" t="s">
+      <c r="D32" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E32" s="95">
+      <c r="E32" s="68">
         <v>45376</v>
       </c>
       <c r="F32" s="7">
@@ -13078,14 +13072,14 @@
       <c r="MC32" s="8"/>
       <c r="MD32" s="27"/>
     </row>
-    <row r="33" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="96" t="s">
+    <row r="33" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A33" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="77"/>
-      <c r="D33" s="77"/>
-      <c r="E33" s="97"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="70"/>
       <c r="F33" s="7" t="str">
         <f t="shared" si="279"/>
         <v/>
@@ -13427,20 +13421,20 @@
       <c r="MC33" s="8"/>
       <c r="MD33" s="27"/>
     </row>
-    <row r="34" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="98" t="s">
+    <row r="34" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A34" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="79">
+      <c r="C34" s="58">
         <v>45386</v>
       </c>
-      <c r="D34" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E34" s="99">
+      <c r="D34" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E34" s="72">
         <v>45405</v>
       </c>
       <c r="F34" s="7">
@@ -13784,20 +13778,20 @@
       <c r="MC34" s="8"/>
       <c r="MD34" s="27"/>
     </row>
-    <row r="35" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="98" t="s">
-        <v>49</v>
-      </c>
-      <c r="B35" s="78" t="s">
+    <row r="35" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A35" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="79">
+      <c r="C35" s="58">
         <v>45386</v>
       </c>
-      <c r="D35" s="69" t="s">
+      <c r="D35" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E35" s="99">
+      <c r="E35" s="72">
         <v>45407</v>
       </c>
       <c r="F35" s="7">
@@ -14141,20 +14135,20 @@
       <c r="MC35" s="8"/>
       <c r="MD35" s="27"/>
     </row>
-    <row r="36" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="98" t="s">
-        <v>50</v>
-      </c>
-      <c r="B36" s="78" t="s">
+    <row r="36" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A36" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="79">
+      <c r="C36" s="58">
         <v>45386</v>
       </c>
-      <c r="D36" s="69" t="s">
+      <c r="D36" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E36" s="99">
+      <c r="E36" s="72">
         <v>45407</v>
       </c>
       <c r="F36" s="7"/>
@@ -14495,20 +14489,20 @@
       <c r="MC36" s="8"/>
       <c r="MD36" s="27"/>
     </row>
-    <row r="37" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" s="78" t="s">
+    <row r="37" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A37" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="79">
+      <c r="C37" s="58">
         <v>45386</v>
       </c>
-      <c r="D37" s="69" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="99">
+      <c r="D37" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" s="72">
         <v>45412</v>
       </c>
       <c r="F37" s="7"/>
@@ -14849,20 +14843,20 @@
       <c r="MC37" s="8"/>
       <c r="MD37" s="27"/>
     </row>
-    <row r="38" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="98" t="s">
+    <row r="38" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A38" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="79">
+      <c r="C38" s="58">
         <v>45398</v>
       </c>
-      <c r="D38" s="69" t="s">
+      <c r="D38" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E38" s="99">
+      <c r="E38" s="72">
         <v>45412</v>
       </c>
       <c r="F38" s="7">
@@ -15206,20 +15200,20 @@
       <c r="MC38" s="8"/>
       <c r="MD38" s="27"/>
     </row>
-    <row r="39" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="98" t="s">
+    <row r="39" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A39" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="79">
+      <c r="C39" s="58">
         <v>45398</v>
       </c>
-      <c r="D39" s="69" t="s">
+      <c r="D39" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="E39" s="99">
+      <c r="E39" s="72">
         <v>45413</v>
       </c>
       <c r="F39" s="7">
@@ -15563,14 +15557,14 @@
       <c r="MC39" s="8"/>
       <c r="MD39" s="27"/>
     </row>
-    <row r="40" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="100" t="s">
+    <row r="40" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A40" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="80"/>
-      <c r="C40" s="81"/>
-      <c r="D40" s="81"/>
-      <c r="E40" s="101"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="74"/>
       <c r="F40" s="7"/>
       <c r="G40" s="25"/>
       <c r="H40" s="8"/>
@@ -15909,19 +15903,19 @@
       <c r="MC40" s="8"/>
       <c r="MD40" s="27"/>
     </row>
-    <row r="41" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="56" t="s">
+    <row r="41" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A41" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="51"/>
-      <c r="E41" s="57" t="s">
-        <v>54</v>
+      <c r="C41" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="36"/>
+      <c r="E41" s="41" t="s">
+        <v>53</v>
       </c>
       <c r="F41" s="7"/>
       <c r="G41" s="25"/>
@@ -16261,19 +16255,19 @@
       <c r="MC41" s="8"/>
       <c r="MD41" s="27"/>
     </row>
-    <row r="42" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="56" t="s">
+    <row r="42" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A42" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="52">
-        <v>45225</v>
-      </c>
-      <c r="D42" s="51"/>
-      <c r="E42" s="57">
-        <v>45262</v>
+      <c r="C42" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D42" s="36"/>
+      <c r="E42" s="41">
+        <v>45406</v>
       </c>
       <c r="F42" s="7"/>
       <c r="G42" s="25"/>
@@ -16613,19 +16607,19 @@
       <c r="MC42" s="8"/>
       <c r="MD42" s="27"/>
     </row>
-    <row r="43" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="56" t="s">
+    <row r="43" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A43" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="51" t="s">
+      <c r="B43" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="52">
-        <v>45226</v>
-      </c>
-      <c r="D43" s="51"/>
-      <c r="E43" s="57">
-        <v>45263</v>
+      <c r="C43" s="37">
+        <v>45406</v>
+      </c>
+      <c r="D43" s="36"/>
+      <c r="E43" s="41">
+        <v>45413</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="25"/>
@@ -16965,14 +16959,14 @@
       <c r="MC43" s="8"/>
       <c r="MD43" s="27"/>
     </row>
-    <row r="44" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="58" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="59"/>
+    <row r="44" spans="1:342" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
+      <c r="A44" s="89" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="90"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="90"/>
+      <c r="E44" s="91"/>
       <c r="F44" s="7" t="str">
         <f t="shared" si="279"/>
         <v/>
@@ -17314,18 +17308,18 @@
       <c r="MC44" s="8"/>
       <c r="MD44" s="27"/>
     </row>
-    <row r="45" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+    <row r="45" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A45" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="55">
+      <c r="C45" s="39">
         <v>45223</v>
       </c>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61">
+      <c r="D45" s="39"/>
+      <c r="E45" s="43">
         <v>45223</v>
       </c>
       <c r="F45" s="7">
@@ -17669,18 +17663,18 @@
       <c r="MC45" s="8"/>
       <c r="MD45" s="27"/>
     </row>
-    <row r="46" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="60" t="s">
+    <row r="46" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A46" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="55">
+      <c r="C46" s="39">
         <v>45239</v>
       </c>
-      <c r="D46" s="55"/>
-      <c r="E46" s="61">
+      <c r="D46" s="39"/>
+      <c r="E46" s="43">
         <v>45239</v>
       </c>
       <c r="F46" s="7"/>
@@ -18021,18 +18015,18 @@
       <c r="MC46" s="8"/>
       <c r="MD46" s="27"/>
     </row>
-    <row r="47" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="60" t="s">
+    <row r="47" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A47" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="55">
+      <c r="C47" s="39">
         <v>45225</v>
       </c>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61">
+      <c r="D47" s="39"/>
+      <c r="E47" s="43">
         <v>45225</v>
       </c>
       <c r="F47" s="7"/>
@@ -18373,18 +18367,18 @@
       <c r="MC47" s="8"/>
       <c r="MD47" s="27"/>
     </row>
-    <row r="48" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="60" t="s">
+    <row r="48" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A48" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="102">
+      <c r="C48" s="75">
         <v>45406</v>
       </c>
-      <c r="D48" s="54"/>
-      <c r="E48" s="61">
+      <c r="D48" s="38"/>
+      <c r="E48" s="43">
         <v>45406</v>
       </c>
       <c r="F48" s="7"/>
@@ -18725,18 +18719,18 @@
       <c r="MC48" s="8"/>
       <c r="MD48" s="27"/>
     </row>
-    <row r="49" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="60" t="s">
+    <row r="49" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A49" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="102">
+      <c r="C49" s="75">
         <v>45413</v>
       </c>
-      <c r="D49" s="54"/>
-      <c r="E49" s="61">
+      <c r="D49" s="38"/>
+      <c r="E49" s="43">
         <v>45413</v>
       </c>
       <c r="F49" s="7"/>
@@ -19077,19 +19071,19 @@
       <c r="MC49" s="8"/>
       <c r="MD49" s="27"/>
     </row>
-    <row r="50" spans="1:342" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="62" t="s">
+    <row r="50" spans="1:342" ht="30" customHeight="1" thickBot="1">
+      <c r="A50" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="B50" s="63" t="s">
+      <c r="B50" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="D50" s="64"/>
-      <c r="E50" s="65" t="s">
-        <v>54</v>
+      <c r="C50" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="D50" s="46"/>
+      <c r="E50" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="F50" s="7" t="e">
         <f t="shared" si="279"/>
@@ -19434,15 +19428,36 @@
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="AI7:AO7"/>
-    <mergeCell ref="AP7:AV7"/>
-    <mergeCell ref="CM7:CS7"/>
-    <mergeCell ref="AW7:BC7"/>
-    <mergeCell ref="BD7:BJ7"/>
-    <mergeCell ref="N7:T7"/>
-    <mergeCell ref="U7:AA7"/>
-    <mergeCell ref="AB7:AH7"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="LQ7:LW7"/>
+    <mergeCell ref="LX7:MD7"/>
+    <mergeCell ref="KH7:KN7"/>
+    <mergeCell ref="KO7:KU7"/>
+    <mergeCell ref="KV7:LB7"/>
+    <mergeCell ref="LC7:LI7"/>
+    <mergeCell ref="LJ7:LP7"/>
+    <mergeCell ref="IY7:JE7"/>
+    <mergeCell ref="JF7:JL7"/>
+    <mergeCell ref="JM7:JS7"/>
+    <mergeCell ref="JT7:JZ7"/>
+    <mergeCell ref="KA7:KG7"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="IK7:IQ7"/>
+    <mergeCell ref="IR7:IX7"/>
+    <mergeCell ref="ID7:IJ7"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="HI7:HO7"/>
+    <mergeCell ref="HP7:HV7"/>
+    <mergeCell ref="HW7:IC7"/>
+    <mergeCell ref="DO7:DU7"/>
+    <mergeCell ref="DV7:EB7"/>
+    <mergeCell ref="BK7:BQ7"/>
+    <mergeCell ref="BR7:BX7"/>
+    <mergeCell ref="BY7:CE7"/>
+    <mergeCell ref="CF7:CL7"/>
+    <mergeCell ref="CT7:CZ7"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="HB7:HH7"/>
     <mergeCell ref="GU7:HA7"/>
@@ -19459,90 +19474,69 @@
     <mergeCell ref="DA7:DG7"/>
     <mergeCell ref="DH7:DN7"/>
     <mergeCell ref="C6:E6"/>
-    <mergeCell ref="IK7:IQ7"/>
-    <mergeCell ref="IR7:IX7"/>
-    <mergeCell ref="ID7:IJ7"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="HI7:HO7"/>
-    <mergeCell ref="HP7:HV7"/>
-    <mergeCell ref="HW7:IC7"/>
-    <mergeCell ref="DO7:DU7"/>
-    <mergeCell ref="DV7:EB7"/>
-    <mergeCell ref="BK7:BQ7"/>
-    <mergeCell ref="BR7:BX7"/>
-    <mergeCell ref="BY7:CE7"/>
-    <mergeCell ref="CF7:CL7"/>
-    <mergeCell ref="CT7:CZ7"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="LQ7:LW7"/>
-    <mergeCell ref="LX7:MD7"/>
-    <mergeCell ref="KH7:KN7"/>
-    <mergeCell ref="KO7:KU7"/>
-    <mergeCell ref="KV7:LB7"/>
-    <mergeCell ref="LC7:LI7"/>
-    <mergeCell ref="LJ7:LP7"/>
-    <mergeCell ref="IY7:JE7"/>
-    <mergeCell ref="JF7:JL7"/>
-    <mergeCell ref="JM7:JS7"/>
-    <mergeCell ref="JT7:JZ7"/>
-    <mergeCell ref="KA7:KG7"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="AI7:AO7"/>
+    <mergeCell ref="AP7:AV7"/>
+    <mergeCell ref="CM7:CS7"/>
+    <mergeCell ref="AW7:BC7"/>
+    <mergeCell ref="BD7:BJ7"/>
+    <mergeCell ref="N7:T7"/>
+    <mergeCell ref="U7:AA7"/>
+    <mergeCell ref="AB7:AH7"/>
   </mergeCells>
-  <conditionalFormatting sqref="HB9:LV9 G9:HA50 HB11:LV50 LX11:MC50">
-    <cfRule type="expression" dxfId="11" priority="95">
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="containsText" dxfId="10" priority="50" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D12)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D24">
+    <cfRule type="containsText" dxfId="9" priority="4" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:D32">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:D39">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="Completed">
+      <formula>NOT(ISERROR(SEARCH("Completed",D34)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G9:HA50 HB11:LV50 LX11:MC50 HB9:LV9">
+    <cfRule type="expression" dxfId="6" priority="95">
       <formula>AND(TODAY()&gt;=G$8,TODAY()&lt;H$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10:HA43 HB11:LV43 LX11:MC50">
-    <cfRule type="expression" dxfId="10" priority="90" stopIfTrue="1">
+  <conditionalFormatting sqref="G44:LV50">
+    <cfRule type="expression" dxfId="5" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$8,task_start&lt;H$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
-    <cfRule type="containsText" dxfId="9" priority="50" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",D12)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="G44:MD50">
-    <cfRule type="expression" dxfId="8" priority="58">
+    <cfRule type="expression" dxfId="4" priority="58">
       <formula>AND(task_start&lt;=G$8,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=G$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LW11:LW43 MD11:MD43">
-    <cfRule type="expression" dxfId="7" priority="103" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=LW$8,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LW44:LW50 MD44:MD50">
-    <cfRule type="expression" dxfId="6" priority="109" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="109" stopIfTrue="1">
       <formula>AND(task_end&gt;=LW$8,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="LW8:MD9 LW11:LW50 MD11:MD50">
-    <cfRule type="expression" dxfId="5" priority="97">
+    <cfRule type="expression" dxfId="1" priority="97">
       <formula>AND(TODAY()&gt;=LW$8,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:LV50">
-    <cfRule type="expression" dxfId="4" priority="59" stopIfTrue="1">
+  <conditionalFormatting sqref="LX11:MC50 G10:HA43 HB11:LV43">
+    <cfRule type="expression" dxfId="0" priority="90" stopIfTrue="1">
       <formula>AND(task_end&gt;=G$8,task_start&lt;H$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D24">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",D18)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26:D32">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",D26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D34:D39">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Completed">
-      <formula>NOT(ISERROR(SEARCH("Completed",D34)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -19560,12 +19554,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7486779a-997d-4535-9ba4-a753c50729d6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -19803,21 +19800,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7486779a-997d-4535-9ba4-a753c50729d6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4B3A8A-0AAE-4E8E-B515-161B78B428E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DBBD5A-8381-40AE-B59F-128FFB30F882}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="7486779a-997d-4535-9ba4-a753c50729d6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -19843,12 +19840,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75DBBD5A-8381-40AE-B59F-128FFB30F882}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0F4B3A8A-0AAE-4E8E-B515-161B78B428E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="7486779a-997d-4535-9ba4-a753c50729d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>